--- a/overzicht-contacten.xlsx
+++ b/overzicht-contacten.xlsx
@@ -1,19 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleur\Documents\Private\Field hockey\Bestuur\Automation\ActieOpties\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB151710-A104-4890-8501-17F70A87CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>Bedrijf</t>
+  </si>
+  <si>
+    <t>Contactpersoon</t>
+  </si>
+  <si>
+    <t>Straatnaam</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Sponsoritem</t>
+  </si>
+  <si>
+    <t>mevr A</t>
+  </si>
+  <si>
+    <t>straat1</t>
+  </si>
+  <si>
+    <t>postcode1</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>sponsoritem1</t>
+  </si>
+  <si>
+    <t>bedrag1</t>
+  </si>
+  <si>
+    <t>Bedrijf2</t>
+  </si>
+  <si>
+    <t>mevr B</t>
+  </si>
+  <si>
+    <t>straat2</t>
+  </si>
+  <si>
+    <t>postcode2</t>
+  </si>
+  <si>
+    <t>email2</t>
+  </si>
+  <si>
+    <t>sponsoritem2</t>
+  </si>
+  <si>
+    <t>bedrag2</t>
+  </si>
+  <si>
+    <t>Bedrijf3</t>
+  </si>
+  <si>
+    <t>mevr C</t>
+  </si>
+  <si>
+    <t>straat3</t>
+  </si>
+  <si>
+    <t>postcode3</t>
+  </si>
+  <si>
+    <t>email3</t>
+  </si>
+  <si>
+    <t>sponsoritem3</t>
+  </si>
+  <si>
+    <t>bedrag3</t>
+  </si>
+  <si>
+    <t>Bedrijf4</t>
+  </si>
+  <si>
+    <t>mevr D</t>
+  </si>
+  <si>
+    <t>straat4</t>
+  </si>
+  <si>
+    <t>postcode4</t>
+  </si>
+  <si>
+    <t>email4</t>
+  </si>
+  <si>
+    <t>sponsoritem4</t>
+  </si>
+  <si>
+    <t>bedrag4</t>
+  </si>
+  <si>
+    <t>Bedrijf5</t>
+  </si>
+  <si>
+    <t>mevr E</t>
+  </si>
+  <si>
+    <t>straat5</t>
+  </si>
+  <si>
+    <t>postcode5</t>
+  </si>
+  <si>
+    <t>email5</t>
+  </si>
+  <si>
+    <t>sponsoritem5</t>
+  </si>
+  <si>
+    <t>bedrag5</t>
+  </si>
+  <si>
+    <t>Bedrijf1</t>
+  </si>
+  <si>
+    <t>bedrag1_incl</t>
+  </si>
+  <si>
+    <t>bedrag2_incl</t>
+  </si>
+  <si>
+    <t>bedrag3_incl</t>
+  </si>
+  <si>
+    <t>bedrag4_incl</t>
+  </si>
+  <si>
+    <t>bedrag5_incl</t>
+  </si>
+  <si>
+    <t>Bedrag_excl_BTW_per_seizoen</t>
+  </si>
+  <si>
+    <t>Bedrag_incl_BTW_per_seizoen</t>
+  </si>
+  <si>
+    <t>Productiekosten_bord</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +203,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,153 +542,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Bedrijf</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Contactpersoon</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Straatnaam</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Postcode</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Sponsoritem</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Bedrag (excl. BTW)</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Bedrijf6</v>
-      </c>
-      <c r="B2" t="str">
-        <v>mevr A</v>
-      </c>
-      <c r="C2" t="str">
-        <v>straat1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>postcode1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>email1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>sponsoritem1</v>
-      </c>
-      <c r="G2" t="str">
-        <v>bedrag1</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Bedrijf2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>mevr B</v>
-      </c>
-      <c r="C3" t="str">
-        <v>straat2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>postcode2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>email2</v>
-      </c>
-      <c r="F3" t="str">
-        <v>sponsoritem2</v>
-      </c>
-      <c r="G3" t="str">
-        <v>bedrag2</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Bedrijf3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>mevr C</v>
-      </c>
-      <c r="C4" t="str">
-        <v>straat3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>postcode3</v>
-      </c>
-      <c r="E4" t="str">
-        <v>email3</v>
-      </c>
-      <c r="F4" t="str">
-        <v>sponsoritem3</v>
-      </c>
-      <c r="G4" t="str">
-        <v>bedrag3</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Bedrijf4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>mevr D</v>
-      </c>
-      <c r="C5" t="str">
-        <v>straat4</v>
-      </c>
-      <c r="D5" t="str">
-        <v>postcode4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>email4</v>
-      </c>
-      <c r="F5" t="str">
-        <v>sponsoritem4</v>
-      </c>
-      <c r="G5" t="str">
-        <v>bedrag4</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Bedrijf5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>mevr E</v>
-      </c>
-      <c r="C6" t="str">
-        <v>straat5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>postcode5</v>
-      </c>
-      <c r="E6" t="str">
-        <v>email5</v>
-      </c>
-      <c r="F6" t="str">
-        <v>sponsoritem5</v>
-      </c>
-      <c r="G6" t="str">
-        <v>bedrag5</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError sqref="A1:F1 A3:F6 B2:F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/overzicht-contacten.xlsx
+++ b/overzicht-contacten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleur\Documents\Private\Field hockey\Bestuur\Automation\ActieOpties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB151710-A104-4890-8501-17F70A87CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1076AB-05A1-4606-B934-1A61AB56C4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Bedrijf</t>
   </si>
@@ -55,9 +55,6 @@
     <t>sponsoritem1</t>
   </si>
   <si>
-    <t>bedrag1</t>
-  </si>
-  <si>
     <t>Bedrijf2</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>sponsoritem2</t>
   </si>
   <si>
-    <t>bedrag2</t>
-  </si>
-  <si>
     <t>Bedrijf3</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>sponsoritem3</t>
   </si>
   <si>
-    <t>bedrag3</t>
-  </si>
-  <si>
     <t>Bedrijf4</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>sponsoritem4</t>
   </si>
   <si>
-    <t>bedrag4</t>
-  </si>
-  <si>
     <t>Bedrijf5</t>
   </si>
   <si>
@@ -139,25 +127,7 @@
     <t>sponsoritem5</t>
   </si>
   <si>
-    <t>bedrag5</t>
-  </si>
-  <si>
     <t>Bedrijf1</t>
-  </si>
-  <si>
-    <t>bedrag1_incl</t>
-  </si>
-  <si>
-    <t>bedrag2_incl</t>
-  </si>
-  <si>
-    <t>bedrag3_incl</t>
-  </si>
-  <si>
-    <t>bedrag4_incl</t>
-  </si>
-  <si>
-    <t>bedrag5_incl</t>
   </si>
   <si>
     <t>Bedrag_excl_BTW_per_seizoen</t>
@@ -546,7 +516,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -571,18 +541,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -599,118 +569,118 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4">
         <v>350</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
